--- a/images/experiment/データ解析用/1022.xlsx
+++ b/images/experiment/データ解析用/1022.xlsx
@@ -1159,11 +1159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120286208"/>
-        <c:axId val="124429440"/>
+        <c:axId val="75316608"/>
+        <c:axId val="75318784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120286208"/>
+        <c:axId val="75316608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,12 +1203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124429440"/>
+        <c:crossAx val="75318784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124429440"/>
+        <c:axId val="75318784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1251,7 +1251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120286208"/>
+        <c:crossAx val="75316608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1790,11 +1790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124439168"/>
-        <c:axId val="124486784"/>
+        <c:axId val="75365760"/>
+        <c:axId val="131864064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124439168"/>
+        <c:axId val="75365760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124486784"/>
+        <c:crossAx val="131864064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124486784"/>
+        <c:axId val="131864064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1890,7 +1890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124439168"/>
+        <c:crossAx val="75365760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -2406,11 +2406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73337856"/>
-        <c:axId val="73340032"/>
+        <c:axId val="131919872"/>
+        <c:axId val="131921792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73337856"/>
+        <c:axId val="131919872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,12 +2450,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73340032"/>
+        <c:crossAx val="131921792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73340032"/>
+        <c:axId val="131921792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2498,7 +2498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73337856"/>
+        <c:crossAx val="131919872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3067,11 +3067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73394816"/>
-        <c:axId val="73397376"/>
+        <c:axId val="131982464"/>
+        <c:axId val="131984768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73394816"/>
+        <c:axId val="131982464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,12 +3115,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73397376"/>
+        <c:crossAx val="131984768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73397376"/>
+        <c:axId val="131984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3167,7 +3167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73394816"/>
+        <c:crossAx val="131982464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3255,16 +3255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>87406</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>111099</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>32978</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>614003</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104617</xdr:rowOff>
+      <xdr:rowOff>190342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/images/experiment/データ解析用/1022.xlsx
+++ b/images/experiment/データ解析用/1022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="15075" windowHeight="8730"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="15075" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="5" r:id="rId1"/>
@@ -1017,12 +1017,42 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l">
-              <a:defRPr lang="ja-JP" sz="2800"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr lang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="2800" dirty="0" smtClean="0"/>
               <a:t>Input-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400" b="1" i="0" baseline="0" dirty="0" smtClean="0">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>C</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="2800" dirty="0" smtClean="0">
@@ -1039,14 +1069,6 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>B</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" dirty="0" smtClean="0">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>C</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2800" dirty="0">
               <a:solidFill>
@@ -4243,15 +4265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>150000</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
